--- a/lab02/CodigoMaquina.xlsx
+++ b/lab02/CodigoMaquina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ammit\Desktop\ISEL\2223\LEIC\s2\AC\AC\lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979BFA6A-46E3-443D-8536-0ADEB98470AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CD505-9A40-4561-955C-4B059E94D0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8DB6E1A-3C87-44E6-8DBE-0BB83CC2F5DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ldr r0, var2_addr</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>0x0008</t>
-  </si>
-  <si>
-    <t>10100 0001 0001 0001</t>
   </si>
   <si>
     <t>offset ldr = var2_addr - pc</t>
@@ -447,7 +444,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,17 +743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -764,13 +756,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/lab02/CodigoMaquina.xlsx
+++ b/lab02/CodigoMaquina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ammit\Desktop\ISEL\2223\LEIC\s2\AC\AC\lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CD505-9A40-4561-955C-4B059E94D0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D1A1F-FFE2-4B38-AA60-9375CAC82B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8DB6E1A-3C87-44E6-8DBE-0BB83CC2F5DA}"/>
   </bookViews>
@@ -113,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,12 +121,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA77C23-879A-471D-969C-7DD778FF800A}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,52 +559,52 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -526,52 +615,52 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
         <v>1</v>
       </c>
     </row>
@@ -582,52 +671,52 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
         <v>1</v>
       </c>
     </row>
@@ -638,52 +727,52 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -694,52 +783,52 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -763,6 +852,96 @@
       </c>
       <c r="F12" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>F2*2^0+E2*2^1+D2*2^2+C2*2^3</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>J2*2^0+I2*2^1+H2*2^2+G2*2^3</f>
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>N2*2^0+M2*2^1+L2*2^2+K2*2^3</f>
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f>R2*2^0+Q2*2^1+P2*2^2+O2*2^3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" ref="C15:D18" si="0">F3*2^0+E3*2^1+D3*2^2+C3*2^3</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D18" si="1">J3*2^0+I3*2^1+H3*2^2+G3*2^3</f>
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E18" si="2">N3*2^0+M3*2^1+L3*2^2+K3*2^3</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F18" si="3">R3*2^0+Q3*2^1+P3*2^2+O3*2^3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/lab02/CodigoMaquina.xlsx
+++ b/lab02/CodigoMaquina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ammit\Desktop\ISEL\2223\LEIC\s2\AC\AC\lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D1A1F-FFE2-4B38-AA60-9375CAC82B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658DEAD-9717-473D-96C9-B9DAD378BA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8DB6E1A-3C87-44E6-8DBE-0BB83CC2F5DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>ldr r0, var2_addr</t>
   </si>
@@ -90,6 +90,54 @@
   </si>
   <si>
     <t>111 1111 1000</t>
+  </si>
+  <si>
+    <t>LHH00000C40</t>
+  </si>
+  <si>
+    <t>LHH000A000D</t>
+  </si>
+  <si>
+    <t>LHH00020801</t>
+  </si>
+  <si>
+    <t>LHH0004A091</t>
+  </si>
+  <si>
+    <t>LHH00062801</t>
+  </si>
+  <si>
+    <t>LHH00085BFC</t>
+  </si>
+  <si>
+    <t>LDR R0, VAR2_ADDR</t>
+  </si>
+  <si>
+    <t>LDRB R1, [R0, #0]</t>
+  </si>
+  <si>
+    <t>ADD R1, R1, #1</t>
+  </si>
+  <si>
+    <t>STRB R1, [R0, #0]</t>
+  </si>
+  <si>
+    <t>B LOOP</t>
+  </si>
+  <si>
+    <t>LHHH000D7EAC</t>
+  </si>
+  <si>
+    <t>HLH000D7F7F</t>
+  </si>
+  <si>
+    <t>LHH000D7FAC</t>
+  </si>
+  <si>
+    <t>HLH000D8080</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -205,17 +253,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA77C23-879A-471D-969C-7DD778FF800A}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="O7" sqref="O7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -584,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -618,49 +671,49 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
         <v>0</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
         <v>0</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
         <v>1</v>
       </c>
     </row>
@@ -674,49 +727,49 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>0</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
         <v>1</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -730,49 +783,49 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>0</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -783,53 +836,103 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -865,7 +968,7 @@
       </c>
       <c r="E14">
         <f>N2*2^0+M2*2^1+L2*2^2+K2*2^3</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <f>R2*2^0+Q2*2^1+P2*2^2+O2*2^3</f>
@@ -874,7 +977,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f t="shared" ref="C15:D18" si="0">F3*2^0+E3*2^1+D3*2^2+C3*2^3</f>
+        <f t="shared" ref="C15:C18" si="0">F3*2^0+E3*2^1+D3*2^2+C3*2^3</f>
         <v>0</v>
       </c>
       <c r="D15">
@@ -908,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -926,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -941,7 +1044,118 @@
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
